--- a/kaiju/tax_summarized/exo.phylum.table.xlsx
+++ b/kaiju/tax_summarized/exo.phylum.table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/kaiju/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7ecf4928fe261446/Documents/GitHub/Carb_CRDS/kaiju/tax_summarized/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{A92325F1-0CDC-44CE-BA91-615FE4C94666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA3630A3-7F2D-4CF2-AF2C-4D31F208AFCF}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:40009_{A92325F1-0CDC-44CE-BA91-615FE4C94666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D6690D-C488-4131-9145-BCD7CBD5A2AD}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Spring</t>
   </si>
   <si>
-    <t>cannot be assigned to a (non-viral) phylum</t>
-  </si>
-  <si>
-    <t>unclassified</t>
-  </si>
-  <si>
-    <t>Viruses</t>
-  </si>
-  <si>
     <t>Summer</t>
   </si>
   <si>
@@ -64,24 +55,15 @@
     <t>Firmicutes</t>
   </si>
   <si>
-    <t>Planctomycetes</t>
-  </si>
-  <si>
     <t>Proteobacteria</t>
   </si>
   <si>
-    <t>Verrucomicrobia</t>
-  </si>
-  <si>
     <t>Eukaryota</t>
   </si>
   <si>
     <t>Ascomycota</t>
   </si>
   <si>
-    <t>Chytridiomycota</t>
-  </si>
-  <si>
     <t>0.669 ± 0.470</t>
   </si>
   <si>
@@ -94,24 +76,15 @@
     <t>1.366 ± 0.418</t>
   </si>
   <si>
-    <t>0.004 ± 0.004</t>
-  </si>
-  <si>
     <t>0.106 ± 0.067</t>
   </si>
   <si>
     <t>0 ± 0</t>
   </si>
   <si>
-    <t>6.003 ± 1.656</t>
-  </si>
-  <si>
     <t>0.122 ± 0.048</t>
   </si>
   <si>
-    <t>48.046 ± 3.366</t>
-  </si>
-  <si>
     <t>0.733 ± 0.314</t>
   </si>
   <si>
@@ -127,15 +100,9 @@
     <t>0.057 ± 0.029</t>
   </si>
   <si>
-    <t>4.417 ± 0.932</t>
-  </si>
-  <si>
     <t>0.090 ± 0.025</t>
   </si>
   <si>
-    <t>46.181 ± 2.712</t>
-  </si>
-  <si>
     <t>0.044 ± 0.016</t>
   </si>
   <si>
@@ -151,20 +118,56 @@
     <t>0.013 ± 0.006</t>
   </si>
   <si>
-    <t>0.006 ± 0.006</t>
-  </si>
-  <si>
-    <t>2.452 ± 1.592</t>
-  </si>
-  <si>
-    <t>24.026 ± 5.322</t>
+    <r>
+      <t xml:space="preserve">50.598 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 2.180</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26.484 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 6.539</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">54.057 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 61.956</t>
+    </r>
+  </si>
+  <si>
+    <t>Unclassified</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +301,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1000,31 +1009,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -1032,206 +1042,121 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
